--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -29,7 +29,7 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve"> $%@#</t>
+    <t xml:space="preserve">something     </t>
   </si>
 </sst>
 </file>
@@ -361,13 +361,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>121230</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
